--- a/test_data/swmm_data/gisswmm_quality.xlsx
+++ b/test_data/swmm_data/gisswmm_quality.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Q_GIS_Projekte\Projekte\Testgebiet_SWMM\plugin_testprojekt\swmm_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schilling\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\generate_swmm_inp\test_data\swmm_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="POLLUTANTS" sheetId="6" r:id="rId1"/>
@@ -214,9 +214,6 @@
     <t>CoFraction</t>
   </si>
   <si>
-    <t xml:space="preserve"> SweepingInterval</t>
-  </si>
-  <si>
     <t>LastSwept</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>WashoffCleaninfEfficiency</t>
   </si>
   <si>
-    <t xml:space="preserve"> SweepingFractionAvailable</t>
-  </si>
-  <si>
     <t>BuildupMax</t>
   </si>
   <si>
@@ -287,6 +281,12 @@
   </si>
   <si>
     <t>N_Total</t>
+  </si>
+  <si>
+    <t>SweepingInterval</t>
+  </si>
+  <si>
+    <t>SweepingFractionAvailable</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,51 +801,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -872,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -919,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -971,10 +971,10 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1057,21 +1057,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>7.58</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>24.22</v>
@@ -1098,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -1106,13 +1106,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/swmm_data/gisswmm_quality.xlsx
+++ b/test_data/swmm_data/gisswmm_quality.xlsx
@@ -914,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,21 +951,6 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>S_1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LU_1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
         <v>24.22</v>
       </c>
     </row>

--- a/test_data/swmm_data/gisswmm_quality.xlsx
+++ b/test_data/swmm_data/gisswmm_quality.xlsx
@@ -914,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,6 +951,21 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>S_1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LU_1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>24.22</v>
       </c>
     </row>

--- a/test_data/swmm_data/gisswmm_quality.xlsx
+++ b/test_data/swmm_data/gisswmm_quality.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="POLLUTANTS" sheetId="1" state="visible" r:id="rId1"/>
@@ -56,18 +56,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -580,7 +580,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -904,7 +904,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -955,7 +955,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -991,6 +991,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>